--- a/data/extracted_data/raw_round2/Braga_2021_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Braga_2021_Fig_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2CF1FF-3EA3-8F48-8428-D6E797269F10}"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="6000" windowWidth="27640" windowHeight="16940" xr2:uid="{01BD859D-414E-0D4D-A9B0-FA06CB2FD9BD}"/>
+    <workbookView xWindow="9860" yWindow="980" windowWidth="28800" windowHeight="16140" xr2:uid="{01BD859D-414E-0D4D-A9B0-FA06CB2FD9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>Grooved carpet shell-estrified-AO</t>
+    <t>* overlap with DTX1-free, cannot digitize separately</t>
   </si>
   <si>
-    <t>time</t>
+    <t>day</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>species</t>
   </si>
   <si>
-    <t>Grooved carpet shell-OA-free</t>
+    <t>estrified-AO</t>
   </si>
   <si>
-    <t>Grooved carpet shel-estrified DTX-1</t>
+    <t>Grooved carpet shell</t>
   </si>
   <si>
-    <t>Grooved carpet shel-total</t>
+    <t>estrified DTX-1</t>
   </si>
   <si>
-    <t>Manila clam-total</t>
+    <t>total</t>
   </si>
   <si>
-    <t>Manila clam-estrified-AO</t>
+    <t>OA-free</t>
   </si>
   <si>
-    <t>Manila clam-estrified-DTX-1</t>
+    <t>Manila clam</t>
   </si>
   <si>
-    <t>Manila clam-OA-free</t>
-  </si>
-  <si>
-    <t>* overlap with DTX1-free, cannot digitize separately</t>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -113,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,10 +131,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,499 +432,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9CE200-0558-A144-B649-9911D8FEC760}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>38.356164383561598</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.0319751796625098</v>
-      </c>
-      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>110.741760850982</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.0227308702947404</v>
-      </c>
-      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>113.154145692848</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10.001582929686201</v>
-      </c>
-      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>24.152341153005899</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>17.808219178082101</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
-        <v>5.0037990312470297</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>52.341153005983401</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>6.0178237882673198</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>50.736062304112401</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>9.9767309336119201</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>8.0349510874727308</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>56.621004566209997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5.0123468515528504</v>
-      </c>
-      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>161.06942729603901</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6.0265299015417702</v>
-      </c>
-      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>161.477823155095</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10.002057808592101</v>
-      </c>
-      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>30.192800835786802</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.68493150684929505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4.0174755437363903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>2.4028872637477399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>4.0174755437363299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>73.9726027397259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>106.71140939597301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>66.442953020134198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>24.161073825503401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0.68493150684929505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>42.4657534246575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
-        <v>5.0123468515528504</v>
-      </c>
-      <c r="C19">
-        <v>4.0174755437363903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>66.442953020134198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
-        <v>6.0265299015417702</v>
-      </c>
-      <c r="C20">
-        <v>2.4028872637477399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>42.281879194630903</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
-        <v>10.002057808592101</v>
-      </c>
-      <c r="C21">
-        <v>4.0174755437363299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>73.9726027397259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5.0151956439154004</v>
-      </c>
-      <c r="C24">
-        <v>106.71140939597301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1">
-        <v>6.0089274408003002</v>
-      </c>
-      <c r="C25">
-        <v>66.442953020134198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1">
-        <v>9.9981005445105708</v>
-      </c>
-      <c r="C26">
-        <v>24.161073825503401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>16.1073825503357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>27.397260273972499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>36.241610738254998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>22.1476510067113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>6.0402684563758804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>42.4657534246575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2.7397260273971802</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1">
-        <v>4.9947764974040698</v>
-      </c>
-      <c r="C29">
-        <v>66.442953020134198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6.0402684563758804</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1">
-        <v>6.0108268962897196</v>
-      </c>
-      <c r="C30">
-        <v>42.281879194630903</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>2.01342281879203</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="1">
-        <v>9.9987336963403806</v>
-      </c>
-      <c r="C31">
-        <v>16.1073825503357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>27.397260273972499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4.9947764974040698</v>
-      </c>
-      <c r="C34">
-        <v>36.241610738254998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1">
-        <v>9.9987336963403806</v>
-      </c>
-      <c r="C35">
-        <v>22.1476510067113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1">
-        <v>6.0108268962897196</v>
-      </c>
-      <c r="C36">
-        <v>6.0402684563758804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C41" s="2">
         <v>10</v>
       </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>2.7397260273971802</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4.99952513612764</v>
-      </c>
-      <c r="C39">
-        <v>6.0402684563758804</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1">
-        <v>6.0139926554387699</v>
-      </c>
-      <c r="C40">
-        <v>2.01342281879203</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/extracted_data/raw_round2/Braga_2021_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Braga_2021_Fig_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2CF1FF-3EA3-8F48-8428-D6E797269F10}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{823307F2-02AF-F04A-B3AF-F2C02C3F4D16}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="980" windowWidth="28800" windowHeight="16140" xr2:uid="{01BD859D-414E-0D4D-A9B0-FA06CB2FD9BD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{01BD859D-414E-0D4D-A9B0-FA06CB2FD9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="14">
   <si>
     <t>treatment</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -110,10 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,622 +440,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9CE200-0558-A144-B649-9911D8FEC760}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="2" max="3" width="31" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>38.356164383561598</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>110.741760850982</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>6</v>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>113.154145692848</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>24.152341153005899</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>17.808219178082101</v>
       </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>5</v>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>52.341153005983401</v>
       </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>6</v>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>50.736062304112401</v>
       </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8.0349510874727308</v>
       </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>56.621004566209997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
-        <v>5</v>
+      <c r="C14" t="s">
+        <v>13</v>
       </c>
       <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
         <v>161.06942729603901</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2">
-        <v>6</v>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
       <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
         <v>161.477823155095</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>30.192800835786802</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>12</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>0.68493150684929505</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2">
-        <v>5</v>
+      <c r="C19" t="s">
+        <v>13</v>
       </c>
       <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>4.0174755437363903</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2">
-        <v>6</v>
+      <c r="C20" t="s">
+        <v>13</v>
       </c>
       <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
         <v>2.4028872637477399</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4.0174755437363299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>12</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>12</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>73.9726027397259</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
+      <c r="C24" t="s">
+        <v>13</v>
       </c>
       <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
         <v>106.71140939597301</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
-        <v>6</v>
+      <c r="C25" t="s">
+        <v>13</v>
       </c>
       <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
         <v>66.442953020134198</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>24.161073825503401</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
+      <c r="C27" t="s">
+        <v>12</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
+      <c r="C28" t="s">
+        <v>12</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>42.4657534246575</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
-        <v>5</v>
+      <c r="C29" t="s">
+        <v>13</v>
       </c>
       <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
         <v>66.442953020134198</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
-        <v>6</v>
+      <c r="C30" t="s">
+        <v>13</v>
       </c>
       <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
         <v>42.281879194630903</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
         <v>10</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>16.1073825503357</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>12</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
+      <c r="C33" t="s">
+        <v>12</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>27.397260273972499</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="2">
-        <v>5</v>
+      <c r="C34" t="s">
+        <v>13</v>
       </c>
       <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
         <v>36.241610738254998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
-        <v>6</v>
+      <c r="C35" t="s">
+        <v>13</v>
       </c>
       <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
         <v>22.1476510067113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>6.0402684563758804</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
+      <c r="C37" t="s">
+        <v>12</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
+      <c r="C38" t="s">
+        <v>12</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>2.7397260273971802</v>
       </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="2">
-        <v>5</v>
+      <c r="C39" t="s">
+        <v>13</v>
       </c>
       <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
         <v>6.0402684563758804</v>
       </c>
-      <c r="E39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="2">
-        <v>6</v>
+      <c r="C40" t="s">
+        <v>13</v>
       </c>
       <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
         <v>2.01342281879203</v>
       </c>
-      <c r="E40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>1</v>
       </c>
     </row>
